--- a/data/trans_camb/P2C_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,37 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>17,09</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,24</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 45,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 25,82</t>
         </is>
       </c>
     </row>
@@ -748,37 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 1,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 0,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 29,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 2,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 0,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 1,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 0,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 9,57</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>614,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>240,3%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,28; 559,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 2,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 1,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 6,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 1,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 1,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 1,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 1,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 1,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 2,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,09%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,34; 607,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,57; 186,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,07; 185,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 312,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,94; 149,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,25; 164,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,53; 359,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 1,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,34; 16,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 2,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 1,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,77; 10,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 1,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 2,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,02; 12,08</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>166,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>602,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3124,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>564,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1174,21%</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,62; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,05; 809,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,3; 1128,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>255,08; 7940,72</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1501,42 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,74</t>
         </is>
       </c>
     </row>
@@ -1554,42 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,72; 29,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 5,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 0,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,9; 15,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 3,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 1,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,07; 20,34</t>
         </is>
       </c>
     </row>
@@ -1607,42 +1607,42 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>382,98%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,76%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1571,33%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>353,86%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,67%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3451,45%</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,4</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 1,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 0,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,78; 31,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 0,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 2,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 26,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 0,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 24,54</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,87%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2983,9%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,93%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>291,69%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1757,11%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,86%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,57%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1500,3%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>672,91; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1911,14 +1911,14 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>140,87; 6572,55</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>47,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>46,46</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>46,69</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 1,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 1,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,3; 55,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 2,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 2,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,56; 51,18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 1,72</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 1,51</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,17; 50,96</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,94%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12063,71%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>323,07%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>192,77%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13762,88%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,95%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>139,0%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13030,21%</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,9; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -2127,19 +2127,236 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3640,16; —</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>16,05</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>12,64</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>13,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 0,75</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 0,91</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>13,15; 19,76</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 1,02</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 0,79</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 17,32</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 0,71</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 0,67</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 16,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>35,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>60,47%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>2772,29%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>47,64%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>1641,36%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>42,49%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>38,86%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>2028,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>-45,78; 232,45</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-38,34; 311,74</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>1307,61; 5854,32</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-25,37; 211,14</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-35,7; 150,17</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>623,89; 3026,97</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>-10,37; 148,54</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>-14,8; 143,62</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>1083,92; 3177,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2C_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Edad-trans_camb.xlsx
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,8</t>
+          <t>0,0; 49,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,59</t>
+          <t>0,0; 23,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 25,82</t>
+          <t>2,64; 25,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,49</t>
+          <t>-1,84; 1,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,62</t>
+          <t>-2,23; 0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 29,78</t>
+          <t>-1,2; 31,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,13</t>
+          <t>-0,84; 2,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,0</t>
+          <t>-1,82; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,18</t>
+          <t>-1,58; 0,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,21</t>
+          <t>-0,75; 1,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,03</t>
+          <t>-1,41; 0,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 9,57</t>
+          <t>-0,79; 10,16</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-87,28; 559,62</t>
+          <t>-77,26; 895,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,02</t>
+          <t>-0,93; 1,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,36</t>
+          <t>-1,32; 1,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 6,13</t>
+          <t>-0,85; 5,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,17</t>
+          <t>-1,99; 1,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,61</t>
+          <t>-1,5; 1,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,92</t>
+          <t>-1,94; 1,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,11</t>
+          <t>-0,99; 1,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,28</t>
+          <t>-1,02; 1,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,74</t>
+          <t>-0,98; 2,67</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-77,34; 607,57</t>
+          <t>-74,95; 702,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,57; 186,39</t>
+          <t>-78,37; 157,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,07; 185,03</t>
+          <t>-66,25; 233,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 312,34</t>
+          <t>-100,0; 306,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,94; 149,18</t>
+          <t>-56,14; 166,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,25; 164,66</t>
+          <t>-56,67; 153,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,53; 359,67</t>
+          <t>-74,39; 331,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,89</t>
+          <t>-0,38; 1,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,05</t>
+          <t>0,59; 4,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 16,66</t>
+          <t>4,48; 17,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,06</t>
+          <t>-2,36; 1,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,99</t>
+          <t>-2,53; 1,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 10,89</t>
+          <t>2,41; 11,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,51</t>
+          <t>-0,86; 1,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,38</t>
+          <t>-0,32; 2,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 12,08</t>
+          <t>4,53; 12,6</t>
         </is>
       </c>
     </row>
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,62; —</t>
+          <t>30,27; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-73,05; 809,54</t>
+          <t>-78,12; 755,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 1128,71</t>
+          <t>-57,46; 1008,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>255,08; 7940,72</t>
+          <t>226,61; 6082,43</t>
         </is>
       </c>
     </row>
@@ -1554,42 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 5,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,72; 29,37</t>
+          <t>10,84; 29,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,37</t>
+          <t>0,15; 5,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,96</t>
+          <t>-2,0; 0,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,9; 15,89</t>
+          <t>4,7; 15,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,39</t>
+          <t>0,04; 3,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,92</t>
+          <t>-0,81; 1,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,07; 20,34</t>
+          <t>9,08; 19,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,29</t>
+          <t>-1,52; 1,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,58</t>
+          <t>-1,81; 0,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>12,78; 31,95</t>
+          <t>12,45; 32,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,56</t>
+          <t>-0,95; 0,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,41</t>
+          <t>-0,3; 2,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,36; 26,28</t>
+          <t>0,84; 26,01</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,61</t>
+          <t>-0,85; 0,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,28</t>
+          <t>-0,53; 1,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,37; 24,54</t>
+          <t>0,95; 24,75</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>672,91; —</t>
+          <t>559,32; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,9; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>140,87; 6572,55</t>
+          <t>71,39; 6157,37</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,25</t>
+          <t>-0,79; 1,23</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,3</t>
+          <t>-0,89; 1,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>39,3; 55,87</t>
+          <t>38,43; 54,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,55</t>
+          <t>-0,19; 2,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,3</t>
+          <t>-0,39; 1,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>40,56; 51,18</t>
+          <t>40,85; 51,76</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,72</t>
+          <t>-0,2; 1,78</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,51</t>
+          <t>-0,29; 1,5</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>42,17; 50,96</t>
+          <t>42,33; 51,27</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-75,9; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3640,16; —</t>
+          <t>3918,82; —</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,75</t>
+          <t>-0,38; 0,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,91</t>
+          <t>-0,26; 0,95</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>13,15; 19,76</t>
+          <t>13,03; 19,43</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,02</t>
+          <t>-0,22; 0,95</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,79</t>
+          <t>-0,36; 0,84</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,47; 17,32</t>
+          <t>5,65; 17,39</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 0,71</t>
+          <t>-0,14; 0,68</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,67</t>
+          <t>-0,14; 0,68</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>7,51; 16,98</t>
+          <t>7,94; 17,05</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-45,78; 232,45</t>
+          <t>-48,43; 206,99</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 311,74</t>
+          <t>-36,19; 292,54</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1307,61; 5854,32</t>
+          <t>1334,07; 5507,74</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 211,14</t>
+          <t>-24,44; 198,03</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 150,17</t>
+          <t>-36,66; 172,11</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>623,89; 3026,97</t>
+          <t>634,53; 2977,19</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 148,54</t>
+          <t>-18,57; 139,92</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 143,62</t>
+          <t>-16,43; 133,0</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>1083,92; 3177,73</t>
+          <t>1052,54; 3156,47</t>
         </is>
       </c>
     </row>
